--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3449.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3449.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.136690825202932</v>
+        <v>1.245278716087341</v>
       </c>
       <c r="B1">
-        <v>1.940455700578228</v>
+        <v>2.213175773620605</v>
       </c>
       <c r="C1">
-        <v>2.470426780362286</v>
+        <v>6.083687305450439</v>
       </c>
       <c r="D1">
-        <v>2.829865602758581</v>
+        <v>1.315924167633057</v>
       </c>
       <c r="E1">
-        <v>3.489993331988578</v>
+        <v>1.327541470527649</v>
       </c>
     </row>
   </sheetData>
